--- a/data/trans_dic/P54_A_6_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_6_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir revueltas, inseguridad o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir revueltas, inseguridad o ya le ha ocurrido (tasa de respuesta: 97,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>46,65%</t>
+          <t>45,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>75,59%</t>
+          <t>91,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>76,65%</t>
+          <t>82,85%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>48,74%</t>
+          <t>63,02%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>85,2%</t>
+          <t>91,38%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>91,93%</t>
+          <t>89,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>47,68%</t>
+          <t>53,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>80,76%</t>
+          <t>91,59%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>84,9%</t>
+          <t>86,27%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,59; 58,0</t>
+          <t>22,88; 63,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,28; 85,18</t>
+          <t>79,78; 97,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>66,33; 85,26</t>
+          <t>68,61; 94,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>39,1; 59,42</t>
+          <t>45,72; 76,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,11; 91,25</t>
+          <t>82,3; 97,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,5; 96,06</t>
+          <t>76,7; 96,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>40,05; 56,39</t>
+          <t>39,51; 66,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>67,52; 86,9</t>
+          <t>84,71; 96,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>79,2; 89,37</t>
+          <t>78,16; 93,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>38,88%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>77,14%</t>
+          <t>83,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>74,56%</t>
+          <t>73,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,07%</t>
+          <t>36,73%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>85,19%</t>
+          <t>87,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>87,33%</t>
+          <t>87,57%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>38,46%</t>
+          <t>36,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>81,28%</t>
+          <t>85,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>80,94%</t>
+          <t>80,76%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,48; 47,74</t>
+          <t>27,78; 48,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,72; 83,08</t>
+          <t>76,04; 88,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,98; 79,92</t>
+          <t>65,49; 81,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>32,4; 44,29</t>
+          <t>30,37; 44,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>80,55; 88,93</t>
+          <t>81,97; 91,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,85; 90,92</t>
+          <t>81,88; 92,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,9; 43,33</t>
+          <t>31,27; 42,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>76,97; 84,74</t>
+          <t>81,06; 89,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>77,33; 84,07</t>
+          <t>75,67; 85,09</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,49%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67,79%</t>
+          <t>70,49%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>65,48%</t>
+          <t>62,98%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,82%</t>
+          <t>40,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>73,89%</t>
+          <t>72,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>78,96%</t>
+          <t>78,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>32,75%</t>
+          <t>31,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>71,07%</t>
+          <t>71,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>72,73%</t>
+          <t>71,53%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,06; 30,13</t>
+          <t>14,11; 28,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59,88; 74,85</t>
+          <t>59,18; 78,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,45; 72,64</t>
+          <t>52,4; 71,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,18; 46,95</t>
+          <t>32,59; 48,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>67,56; 79,65</t>
+          <t>65,23; 79,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>73,28; 83,73</t>
+          <t>71,71; 84,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,35; 37,14</t>
+          <t>25,88; 36,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>66,13; 75,59</t>
+          <t>65,78; 76,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68,19; 77,19</t>
+          <t>65,92; 77,08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>73,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>71,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>81,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>77,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>78,79%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,172 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,24; 39,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,88; 77,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>67,69; 76,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,91; 45,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>77,64; 83,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,45; 87,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,95; 41,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>74,31; 80,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>76,25; 81,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31,35%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>79,64%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>71,12%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>41,31%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>81,95%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>84,03%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>36,6%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>80,87%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>77,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>26,11; 37,98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>74,24; 84,24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>65,38; 76,08</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>36,3; 46,43</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>78,21; 85,3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>79,8; 86,95</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>32,51; 40,62</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>77,21; 83,75</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>74,33; 81,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
@@ -1072,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir revueltas, inseguridad o ya le ha ocurrido (tasa de respuesta: 97,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>45716</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>118358</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>85773</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>61315</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>130193</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>101584</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>107030</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>248550</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>187356</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>23121; 64398</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>102821; 126076</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>71032; 97386</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>44484; 74688</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>117261; 138474</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>87153; 109185</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>78361; 131591</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>229863; 261036</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>169731; 201972</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>277.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>129568</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>352721</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>276608</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>138702</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>397604</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>329910</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>268270</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>750326</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>606519</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>98730; 171851</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>322713; 377082</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>245115; 305384</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>114664; 167005</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>370684; 415992</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>308457; 347387</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>229210; 314026</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>710588; 780882</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>568304; 639036</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>56095</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>234659</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>174724</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>139926</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>308688</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>270216</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>196021</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>543347</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>444940</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>39727; 79425</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>197002; 260219</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>145363; 199496</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>113412; 167889</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>277947; 337223</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>247163; 292235</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>162953; 228928</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>499236; 583190</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>410063; 479497</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>568.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>551.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>231379</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>705738</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>537105</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>339943</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>836485</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>701710</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>571322</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1542223</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1238815</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>192665; 280324</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>657931; 746544</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>493730; 574548</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>298683; 382002</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>798400; 870729</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>666382; 726034</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>507473; 634080</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1472365; 1596992</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1182072; 1288049</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>